--- a/7质量管理-每次活动前后提交/2QualityAssurance/操作文档/iRace-团队人员绩效考核.xlsx
+++ b/7质量管理-每次活动前后提交/2QualityAssurance/操作文档/iRace-团队人员绩效考核.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FILE\大三下\courses\软件工程综合实践-张红延\iRace-竞赛综合管理平台项目配置管理中心\7质量管理-每次活动前后提交\2QualityAssurance\操作文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\FILE\大三下\courses\软件工程综合实践-张红延\iRace-竞赛综合管理平台项目配置管理中心\7质量管理\2QualityAssurance\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -111,7 +111,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最后修改时间：2015/04/09</t>
+    <t>最后修改时间：2015/04/07</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +640,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5:H9"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -723,7 +723,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6">
         <f>SUM(D5:D9)</f>
-        <v>14.5</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
@@ -733,7 +733,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="6">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
@@ -747,7 +747,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -761,7 +761,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -810,7 +810,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
@@ -870,14 +870,14 @@
         <v>0</v>
       </c>
       <c r="D15" s="6">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6">
         <f t="shared" ref="H15" si="0">SUM(D15:D19)</f>
-        <v>16.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
@@ -887,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -947,14 +947,14 @@
         <v>0</v>
       </c>
       <c r="D20" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6">
         <f t="shared" ref="H20" si="1">SUM(D20:D24)</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
@@ -964,7 +964,7 @@
         <v>1</v>
       </c>
       <c r="D21" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
@@ -992,7 +992,7 @@
         <v>7</v>
       </c>
       <c r="D23" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
@@ -1031,7 +1031,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6">
         <f t="shared" ref="H25" si="2">SUM(D25:D29)</f>
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="D26" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
@@ -1069,7 +1069,7 @@
         <v>7</v>
       </c>
       <c r="D28" s="6">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
